--- a/link.xlsx
+++ b/link.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>type</t>
   </si>
@@ -460,9 +460,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
